--- a/performance.xlsx
+++ b/performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Develop\~repos\lock-free\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\lock-free\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580CF4E6-AA98-43BE-BF14-7A0A5831FD14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B69E35-A1FE-411B-94CB-8886AF74D7EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>16 GB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>MPMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpmc::qlock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +261,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3841</c:v>
+                  <c:v>3557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -299,7 +303,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2295</c:v>
+                  <c:v>1929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -341,7 +345,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1404</c:v>
+                  <c:v>1074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,11 +357,97 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spsc::queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2536-479F-A2EA-F4C45FC42A34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpmc::qlock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-214C-4DD6-8BC2-DABD4B364B1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -378,12 +468,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$14</c:f>
+              <c:f>Sheet1!$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>473</c:v>
+                  <c:v>996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,10 +486,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$15</c:f>
+              <c:f>Sheet1!$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -420,12 +510,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$15</c:f>
+              <c:f>Sheet1!$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>425</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -437,53 +527,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>spsc::queue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>940</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2536-479F-A2EA-F4C45FC42A34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$17</c:f>
+              <c:f>Sheet1!$N$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -506,12 +554,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$17</c:f>
+              <c:f>Sheet1!$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>431</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,33 +780,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$32:$L$39</c:f>
+              <c:f>Sheet1!$L$33:$L$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3474</c:v>
+                  <c:v>4039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4696</c:v>
+                  <c:v>4984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6774</c:v>
+                  <c:v>6741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8774</c:v>
+                  <c:v>9165</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11330</c:v>
+                  <c:v>10858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14989</c:v>
+                  <c:v>13700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15787</c:v>
+                  <c:v>16187</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19567</c:v>
+                  <c:v>19481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -766,7 +814,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB4D-47BD-A4D4-A5BC9D6A57C2}"/>
+              <c16:uniqueId val="{00000000-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -798,33 +846,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$32:$M$39</c:f>
+              <c:f>Sheet1!$M$33:$M$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2326</c:v>
+                  <c:v>2362</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4936</c:v>
+                  <c:v>7846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43779</c:v>
+                  <c:v>59064</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62974</c:v>
+                  <c:v>77554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79584</c:v>
+                  <c:v>95615</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92825</c:v>
+                  <c:v>111701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75751</c:v>
+                  <c:v>103145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80021</c:v>
+                  <c:v>95231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,7 +880,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DB4D-47BD-A4D4-A5BC9D6A57C2}"/>
+              <c16:uniqueId val="{00000001-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -864,33 +912,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$32:$N$39</c:f>
+              <c:f>Sheet1!$N$33:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>941</c:v>
+                  <c:v>1453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1757</c:v>
+                  <c:v>2521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2821</c:v>
+                  <c:v>2923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3283</c:v>
+                  <c:v>3565</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3819</c:v>
+                  <c:v>4145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4356</c:v>
+                  <c:v>4411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4756</c:v>
+                  <c:v>4527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5051</c:v>
+                  <c:v>5323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,16 +946,129 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DB4D-47BD-A4D4-A5BC9D6A57C2}"/>
+              <c16:uniqueId val="{00000002-A792-4122-949A-B4098821ADA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spsc::queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A792-4122-949A-B4098821ADA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpmc::qlock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$33:$P$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2676</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$14</c:f>
+              <c:f>Sheet1!$N$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -930,33 +1091,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$32:$O$39</c:f>
+              <c:f>Sheet1!$Q$33:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>534</c:v>
+                  <c:v>1354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>878</c:v>
+                  <c:v>2109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1250</c:v>
+                  <c:v>3191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1968</c:v>
+                  <c:v>3717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2315</c:v>
+                  <c:v>3803</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2749</c:v>
+                  <c:v>4398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2672</c:v>
+                  <c:v>4563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3053</c:v>
+                  <c:v>5049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,16 +1125,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DB4D-47BD-A4D4-A5BC9D6A57C2}"/>
+              <c16:uniqueId val="{00000005-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$15</c:f>
+              <c:f>Sheet1!$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -996,33 +1157,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$32:$P$39</c:f>
+              <c:f>Sheet1!$R$33:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>418</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>779</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1230</c:v>
+                  <c:v>1418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1625</c:v>
+                  <c:v>1783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1883</c:v>
+                  <c:v>2520</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2051</c:v>
+                  <c:v>2306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2314</c:v>
+                  <c:v>2441</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2446</c:v>
+                  <c:v>2747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,61 +1191,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DB4D-47BD-A4D4-A5BC9D6A57C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>spsc::queue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>940</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-DB4D-47BD-A4D4-A5BC9D6A57C2}"/>
+              <c16:uniqueId val="{00000006-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$17</c:f>
+              <c:f>Sheet1!$N$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1109,12 +1225,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$17</c:f>
+              <c:f>Sheet1!$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>431</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,7 +1238,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-DB4D-47BD-A4D4-A5BC9D6A57C2}"/>
+              <c16:uniqueId val="{00000007-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1336,12 +1452,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$32</c:f>
+              <c:f>Sheet1!$L$33:$L$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3474</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16187</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1349,7 +1486,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D05F-4F51-8FA8-D074BCFC5EC9}"/>
+              <c16:uniqueId val="{00000000-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1381,12 +1518,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$32</c:f>
+              <c:f>Sheet1!$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2326</c:v>
+                  <c:v>2362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,7 +1531,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D05F-4F51-8FA8-D074BCFC5EC9}"/>
+              <c16:uniqueId val="{00000001-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1426,33 +1563,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$32:$N$39</c:f>
+              <c:f>Sheet1!$N$33:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>941</c:v>
+                  <c:v>1453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1757</c:v>
+                  <c:v>2521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2821</c:v>
+                  <c:v>2923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3283</c:v>
+                  <c:v>3565</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3819</c:v>
+                  <c:v>4145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4356</c:v>
+                  <c:v>4411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4756</c:v>
+                  <c:v>4527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5051</c:v>
+                  <c:v>5323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1460,16 +1597,129 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D05F-4F51-8FA8-D074BCFC5EC9}"/>
+              <c16:uniqueId val="{00000002-5314-4EB8-8265-4579B85B9CC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spsc::queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5314-4EB8-8265-4579B85B9CC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpmc::qlock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$33:$P$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2676</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$14</c:f>
+              <c:f>Sheet1!$N$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1492,33 +1742,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$32:$O$39</c:f>
+              <c:f>Sheet1!$Q$33:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>534</c:v>
+                  <c:v>1354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>878</c:v>
+                  <c:v>2109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1250</c:v>
+                  <c:v>3191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1968</c:v>
+                  <c:v>3717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2315</c:v>
+                  <c:v>3803</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2749</c:v>
+                  <c:v>4398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2672</c:v>
+                  <c:v>4563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3053</c:v>
+                  <c:v>5049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,16 +1776,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D05F-4F51-8FA8-D074BCFC5EC9}"/>
+              <c16:uniqueId val="{00000005-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$15</c:f>
+              <c:f>Sheet1!$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1558,33 +1808,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$32:$P$39</c:f>
+              <c:f>Sheet1!$R$33:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>418</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>779</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1230</c:v>
+                  <c:v>1418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1625</c:v>
+                  <c:v>1783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1883</c:v>
+                  <c:v>2520</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2051</c:v>
+                  <c:v>2306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2314</c:v>
+                  <c:v>2441</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2446</c:v>
+                  <c:v>2747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,61 +1842,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D05F-4F51-8FA8-D074BCFC5EC9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>spsc::queue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>940</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D05F-4F51-8FA8-D074BCFC5EC9}"/>
+              <c16:uniqueId val="{00000006-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$17</c:f>
+              <c:f>Sheet1!$N$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1671,12 +1876,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$17</c:f>
+              <c:f>Sheet1!$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>431</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,7 +1889,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D05F-4F51-8FA8-D074BCFC5EC9}"/>
+              <c16:uniqueId val="{00000007-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1898,33 +2103,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$71:$L$78</c:f>
+              <c:f>Sheet1!$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3429</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3158</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2817</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2915</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2905</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2959</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3045</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2990</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,7 +2116,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2CF9-4E2E-A5CA-3BEEE0AF82BC}"/>
+              <c16:uniqueId val="{00000000-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1964,33 +2148,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$71:$M$78</c:f>
+              <c:f>Sheet1!$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2560</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2547</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2859</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3191</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3131</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3459</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3159</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,7 +2161,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2CF9-4E2E-A5CA-3BEEE0AF82BC}"/>
+              <c16:uniqueId val="{00000001-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2030,33 +2193,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$71:$N$78</c:f>
+              <c:f>Sheet1!$N$33:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1063</c:v>
+                  <c:v>1453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1660</c:v>
+                  <c:v>2521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2244</c:v>
+                  <c:v>2923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2414</c:v>
+                  <c:v>3565</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2633</c:v>
+                  <c:v>4145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3113</c:v>
+                  <c:v>4411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2622</c:v>
+                  <c:v>4527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2987</c:v>
+                  <c:v>5323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,16 +2227,129 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2CF9-4E2E-A5CA-3BEEE0AF82BC}"/>
+              <c16:uniqueId val="{00000002-C863-4B56-828B-DD76911E345C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spsc::queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C863-4B56-828B-DD76911E345C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpmc::qlock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$33:$P$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2676</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$14</c:f>
+              <c:f>Sheet1!$N$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2096,33 +2372,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$71:$O$78</c:f>
+              <c:f>Sheet1!$Q$33:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>470</c:v>
+                  <c:v>1354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>956</c:v>
+                  <c:v>2109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1285</c:v>
+                  <c:v>3191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1504</c:v>
+                  <c:v>3717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1911</c:v>
+                  <c:v>3803</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2211</c:v>
+                  <c:v>4398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2910</c:v>
+                  <c:v>4563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5401</c:v>
+                  <c:v>5049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,16 +2406,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2CF9-4E2E-A5CA-3BEEE0AF82BC}"/>
+              <c16:uniqueId val="{00000005-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$15</c:f>
+              <c:f>Sheet1!$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2162,12 +2438,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$32</c:f>
+              <c:f>Sheet1!$R$33:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>418</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,61 +2472,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2CF9-4E2E-A5CA-3BEEE0AF82BC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>spsc::queue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>940</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2CF9-4E2E-A5CA-3BEEE0AF82BC}"/>
+              <c16:uniqueId val="{00000006-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$17</c:f>
+              <c:f>Sheet1!$N$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2254,12 +2506,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$17</c:f>
+              <c:f>Sheet1!$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>431</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,7 +2519,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2CF9-4E2E-A5CA-3BEEE0AF82BC}"/>
+              <c16:uniqueId val="{00000007-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2481,33 +2733,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$92:$L$99</c:f>
+              <c:f>Sheet1!$L$93:$L$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3607</c:v>
+                  <c:v>3987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5474</c:v>
+                  <c:v>2869</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6866</c:v>
+                  <c:v>2859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7485</c:v>
+                  <c:v>2999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8167</c:v>
+                  <c:v>3195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7076</c:v>
+                  <c:v>3420</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7649</c:v>
+                  <c:v>3402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8456</c:v>
+                  <c:v>3384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,7 +2767,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8910-4F6B-92AF-D17B9430086A}"/>
+              <c16:uniqueId val="{00000000-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2547,33 +2799,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$92:$M$99</c:f>
+              <c:f>Sheet1!$M$93:$M$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2780</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4928</c:v>
+                  <c:v>2366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7621</c:v>
+                  <c:v>2761</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14469</c:v>
+                  <c:v>2990</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8800</c:v>
+                  <c:v>3632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9090</c:v>
+                  <c:v>3888</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9740</c:v>
+                  <c:v>4142</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8664</c:v>
+                  <c:v>3811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2581,7 +2833,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8910-4F6B-92AF-D17B9430086A}"/>
+              <c16:uniqueId val="{00000001-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2613,33 +2865,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$92:$N$99</c:f>
+              <c:f>Sheet1!$N$93:$N$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1264</c:v>
+                  <c:v>1393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2385</c:v>
+                  <c:v>1976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3216</c:v>
+                  <c:v>2767</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3398</c:v>
+                  <c:v>3246</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3422</c:v>
+                  <c:v>3470</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3417</c:v>
+                  <c:v>3579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3479</c:v>
+                  <c:v>3610</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3577</c:v>
+                  <c:v>3583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,16 +2899,129 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8910-4F6B-92AF-D17B9430086A}"/>
+              <c16:uniqueId val="{00000002-2069-42C1-98D5-CF752AEE248E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spsc::queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2069-42C1-98D5-CF752AEE248E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpmc::qlock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$93:$P$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2873</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$14</c:f>
+              <c:f>Sheet1!$N$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2679,33 +3044,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$92:$O$99</c:f>
+              <c:f>Sheet1!$Q$93:$Q$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>620</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1346</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2064</c:v>
+                  <c:v>1409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3108</c:v>
+                  <c:v>1694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6771</c:v>
+                  <c:v>2110</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9653</c:v>
+                  <c:v>2440</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12651</c:v>
+                  <c:v>2806</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13029</c:v>
+                  <c:v>2791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2713,16 +3078,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8910-4F6B-92AF-D17B9430086A}"/>
+              <c16:uniqueId val="{00000005-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$15</c:f>
+              <c:f>Sheet1!$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2745,12 +3110,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$32</c:f>
+              <c:f>Sheet1!$R$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>418</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2758,61 +3123,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8910-4F6B-92AF-D17B9430086A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>spsc::queue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>940</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8910-4F6B-92AF-D17B9430086A}"/>
+              <c16:uniqueId val="{00000006-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$17</c:f>
+              <c:f>Sheet1!$N$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2837,12 +3157,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$17</c:f>
+              <c:f>Sheet1!$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>431</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2850,7 +3170,658 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8910-4F6B-92AF-D17B9430086A}"/>
+              <c16:uniqueId val="{00000007-2069-42C1-98D5-CF752AEE248E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="77988336"/>
+        <c:axId val="77988896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="77988336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77988896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77988896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77988336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lock::queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$115:$L$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8868</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cond::queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$115:$M$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6870</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10689</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpmc::queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$115:$N$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3548</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3710</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spsc::queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpmc::qlock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$115:$P$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11934</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpmc::qring</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$115:$Q$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spmc::qring</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spsc::qring</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3216,6 +4187,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5281,6 +6292,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5808,7 +7335,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5840,21 +7367,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="图表 10">
+        <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94F4070-81B2-496A-BDE6-7327855A8D4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA2D681-B13C-47B7-81B9-3EC74AFF1E5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5878,21 +7405,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="图表 11">
+        <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006A2154-091D-425B-A35A-E6F622AA8269}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4629D66D-2767-48C8-8067-508E8F862518}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5922,15 +7449,15 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="图表 12">
+        <xdr:cNvPr id="9" name="图表 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971524A6-D0CD-4954-B8FE-7620BA1E1CFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B3C7E3-9B65-4885-94DE-344D69C6DE74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5954,21 +7481,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="图表 15">
+        <xdr:cNvPr id="14" name="图表 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA3987E-D365-4E61-955D-2F5CA3CD9718}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86B23CA-CBE2-4C73-B355-F148212AFE59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5983,6 +7510,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="图表 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCCEB28-EA7A-4B07-B99E-AC7BC7C67E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6254,10 +7819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P99"/>
+  <dimension ref="B2:S122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="P129" sqref="P129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6340,7 +7905,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L11" s="1">
-        <v>3841</v>
+        <v>3557</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>14</v>
@@ -6348,7 +7913,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L12" s="1">
-        <v>2295</v>
+        <v>1929</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>15</v>
@@ -6356,7 +7921,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L13" s="1">
-        <v>1404</v>
+        <v>1074</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>13</v>
@@ -6364,409 +7929,567 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L14" s="1">
-        <v>473</v>
+        <v>1059</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L15" s="1">
-        <v>425</v>
+        <v>545</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L16" s="1">
-        <v>940</v>
+        <v>996</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L17" s="1">
+        <v>446</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L18" s="1">
+        <v>435</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="M32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="Q32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="L17" s="1">
-        <v>431</v>
-      </c>
-      <c r="N17" s="1" t="s">
+    <row r="33" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L33" s="1">
+        <v>4039</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2362</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1453</v>
+      </c>
+      <c r="P33" s="1">
+        <v>541</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1354</v>
+      </c>
+      <c r="R33" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="34" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L34" s="1">
+        <v>4984</v>
+      </c>
+      <c r="M34" s="1">
+        <v>7846</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2521</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1101</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>2109</v>
+      </c>
+      <c r="R34" s="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="35" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L35" s="1">
+        <v>6741</v>
+      </c>
+      <c r="M35" s="1">
+        <v>59064</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2923</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1664</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>3191</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="36" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L36" s="1">
+        <v>9165</v>
+      </c>
+      <c r="M36" s="1">
+        <v>77554</v>
+      </c>
+      <c r="N36" s="1">
+        <v>3565</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2206</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>3717</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="37" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L37" s="1">
+        <v>10858</v>
+      </c>
+      <c r="M37" s="1">
+        <v>95615</v>
+      </c>
+      <c r="N37" s="1">
+        <v>4145</v>
+      </c>
+      <c r="P37" s="1">
+        <v>2510</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>3803</v>
+      </c>
+      <c r="R37" s="1">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="38" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L38" s="1">
+        <v>13700</v>
+      </c>
+      <c r="M38" s="1">
+        <v>111701</v>
+      </c>
+      <c r="N38" s="1">
+        <v>4411</v>
+      </c>
+      <c r="P38" s="1">
+        <v>2676</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>4398</v>
+      </c>
+      <c r="R38" s="1">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="39" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L39" s="1">
+        <v>16187</v>
+      </c>
+      <c r="M39" s="1">
+        <v>103145</v>
+      </c>
+      <c r="N39" s="1">
+        <v>4527</v>
+      </c>
+      <c r="P39" s="1">
+        <v>3019</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>4563</v>
+      </c>
+      <c r="R39" s="1">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="40" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L40" s="1">
+        <v>19481</v>
+      </c>
+      <c r="M40" s="1">
+        <v>95231</v>
+      </c>
+      <c r="N40" s="1">
+        <v>5323</v>
+      </c>
+      <c r="P40" s="1">
+        <v>3039</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>5049</v>
+      </c>
+      <c r="R40" s="1">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="M92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S92" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
-        <v>20</v>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L93" s="1">
+        <v>3987</v>
+      </c>
+      <c r="M93" s="1">
+        <v>2542</v>
+      </c>
+      <c r="N93" s="1">
+        <v>1393</v>
+      </c>
+      <c r="P93" s="1">
+        <v>590</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>1170</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="L32" s="1">
-        <v>3474</v>
-      </c>
-      <c r="M32" s="1">
-        <v>2326</v>
-      </c>
-      <c r="N32" s="1">
-        <v>941</v>
-      </c>
-      <c r="O32" s="1">
-        <v>534</v>
-      </c>
-      <c r="P32" s="1">
-        <v>418</v>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L94" s="1">
+        <v>2869</v>
+      </c>
+      <c r="M94" s="1">
+        <v>2366</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1976</v>
+      </c>
+      <c r="P94" s="1">
+        <v>975</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>993</v>
       </c>
     </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.15">
-      <c r="L33" s="1">
-        <v>4696</v>
-      </c>
-      <c r="M33" s="1">
-        <v>4936</v>
-      </c>
-      <c r="N33" s="1">
-        <v>1757</v>
-      </c>
-      <c r="O33" s="1">
-        <v>878</v>
-      </c>
-      <c r="P33" s="1">
-        <v>779</v>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L95" s="1">
+        <v>2859</v>
+      </c>
+      <c r="M95" s="1">
+        <v>2761</v>
+      </c>
+      <c r="N95" s="1">
+        <v>2767</v>
+      </c>
+      <c r="P95" s="1">
+        <v>1269</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>1409</v>
       </c>
     </row>
-    <row r="34" spans="12:16" x14ac:dyDescent="0.15">
-      <c r="L34" s="1">
-        <v>6774</v>
-      </c>
-      <c r="M34" s="1">
-        <v>43779</v>
-      </c>
-      <c r="N34" s="1">
-        <v>2821</v>
-      </c>
-      <c r="O34" s="1">
-        <v>1250</v>
-      </c>
-      <c r="P34" s="1">
-        <v>1230</v>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L96" s="1">
+        <v>2999</v>
+      </c>
+      <c r="M96" s="1">
+        <v>2990</v>
+      </c>
+      <c r="N96" s="1">
+        <v>3246</v>
+      </c>
+      <c r="P96" s="1">
+        <v>1512</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>1694</v>
       </c>
     </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.15">
-      <c r="L35" s="1">
-        <v>8774</v>
-      </c>
-      <c r="M35" s="1">
-        <v>62974</v>
-      </c>
-      <c r="N35" s="1">
-        <v>3283</v>
-      </c>
-      <c r="O35" s="1">
-        <v>1968</v>
-      </c>
-      <c r="P35" s="1">
-        <v>1625</v>
+    <row r="97" spans="12:17" x14ac:dyDescent="0.15">
+      <c r="L97" s="1">
+        <v>3195</v>
+      </c>
+      <c r="M97" s="1">
+        <v>3632</v>
+      </c>
+      <c r="N97" s="1">
+        <v>3470</v>
+      </c>
+      <c r="P97" s="1">
+        <v>1751</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>2110</v>
       </c>
     </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.15">
-      <c r="L36" s="1">
-        <v>11330</v>
-      </c>
-      <c r="M36" s="1">
-        <v>79584</v>
-      </c>
-      <c r="N36" s="1">
-        <v>3819</v>
-      </c>
-      <c r="O36" s="1">
-        <v>2315</v>
-      </c>
-      <c r="P36" s="1">
-        <v>1883</v>
+    <row r="98" spans="12:17" x14ac:dyDescent="0.15">
+      <c r="L98" s="1">
+        <v>3420</v>
+      </c>
+      <c r="M98" s="1">
+        <v>3888</v>
+      </c>
+      <c r="N98" s="1">
+        <v>3579</v>
+      </c>
+      <c r="P98" s="1">
+        <v>2112</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>2440</v>
       </c>
     </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.15">
-      <c r="L37" s="1">
-        <v>14989</v>
-      </c>
-      <c r="M37" s="1">
-        <v>92825</v>
-      </c>
-      <c r="N37" s="1">
-        <v>4356</v>
-      </c>
-      <c r="O37" s="1">
-        <v>2749</v>
-      </c>
-      <c r="P37" s="1">
-        <v>2051</v>
+    <row r="99" spans="12:17" x14ac:dyDescent="0.15">
+      <c r="L99" s="1">
+        <v>3402</v>
+      </c>
+      <c r="M99" s="1">
+        <v>4142</v>
+      </c>
+      <c r="N99" s="1">
+        <v>3610</v>
+      </c>
+      <c r="P99" s="1">
+        <v>2873</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>2806</v>
       </c>
     </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.15">
-      <c r="L38" s="1">
-        <v>15787</v>
-      </c>
-      <c r="M38" s="1">
-        <v>75751</v>
-      </c>
-      <c r="N38" s="1">
-        <v>4756</v>
-      </c>
-      <c r="O38" s="1">
-        <v>2672</v>
-      </c>
-      <c r="P38" s="1">
-        <v>2314</v>
+    <row r="100" spans="12:17" x14ac:dyDescent="0.15">
+      <c r="L100" s="1">
+        <v>3384</v>
+      </c>
+      <c r="M100" s="1">
+        <v>3811</v>
+      </c>
+      <c r="N100" s="1">
+        <v>3583</v>
+      </c>
+      <c r="P100" s="1">
+        <v>4431</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>2791</v>
       </c>
     </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.15">
-      <c r="L39" s="1">
-        <v>19567</v>
-      </c>
-      <c r="M39" s="1">
-        <v>80021</v>
-      </c>
-      <c r="N39" s="1">
-        <v>5051</v>
-      </c>
-      <c r="O39" s="1">
-        <v>3053</v>
-      </c>
-      <c r="P39" s="1">
-        <v>2446</v>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B69" s="1" t="s">
-        <v>21</v>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="M114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L71" s="1">
-        <v>3429</v>
-      </c>
-      <c r="M71" s="1">
-        <v>2401</v>
-      </c>
-      <c r="N71" s="1">
-        <v>1063</v>
-      </c>
-      <c r="O71" s="1">
-        <v>470</v>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L115" s="1">
+        <v>4255</v>
+      </c>
+      <c r="M115" s="1">
+        <v>2799</v>
+      </c>
+      <c r="N115" s="1">
+        <v>1101</v>
+      </c>
+      <c r="P115" s="1">
+        <v>652</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>1195</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L72" s="1">
-        <v>3158</v>
-      </c>
-      <c r="M72" s="1">
-        <v>2560</v>
-      </c>
-      <c r="N72" s="1">
-        <v>1660</v>
-      </c>
-      <c r="O72" s="1">
-        <v>956</v>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L116" s="1">
+        <v>5557</v>
+      </c>
+      <c r="M116" s="1">
+        <v>5959</v>
+      </c>
+      <c r="N116" s="1">
+        <v>2765</v>
+      </c>
+      <c r="P116" s="1">
+        <v>1493</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>1877</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L73" s="1">
-        <v>2817</v>
-      </c>
-      <c r="M73" s="1">
-        <v>2547</v>
-      </c>
-      <c r="N73" s="1">
-        <v>2244</v>
-      </c>
-      <c r="O73" s="1">
-        <v>1285</v>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L117" s="1">
+        <v>7465</v>
+      </c>
+      <c r="M117" s="1">
+        <v>6870</v>
+      </c>
+      <c r="N117" s="1">
+        <v>3548</v>
+      </c>
+      <c r="P117" s="1">
+        <v>1958</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>2622</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L74" s="1">
-        <v>2915</v>
-      </c>
-      <c r="M74" s="1">
-        <v>2859</v>
-      </c>
-      <c r="N74" s="1">
-        <v>2414</v>
-      </c>
-      <c r="O74" s="1">
-        <v>1504</v>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L118" s="1">
+        <v>8677</v>
+      </c>
+      <c r="M118" s="1">
+        <v>8963</v>
+      </c>
+      <c r="N118" s="1">
+        <v>3809</v>
+      </c>
+      <c r="P118" s="1">
+        <v>2883</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>3267</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L75" s="1">
-        <v>2905</v>
-      </c>
-      <c r="M75" s="1">
-        <v>3191</v>
-      </c>
-      <c r="N75" s="1">
-        <v>2633</v>
-      </c>
-      <c r="O75" s="1">
-        <v>1911</v>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L119" s="1">
+        <v>9142</v>
+      </c>
+      <c r="M119" s="1">
+        <v>11822</v>
+      </c>
+      <c r="N119" s="1">
+        <v>3710</v>
+      </c>
+      <c r="P119" s="1">
+        <v>6144</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>4106</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L76" s="1">
-        <v>2959</v>
-      </c>
-      <c r="M76" s="1">
-        <v>3131</v>
-      </c>
-      <c r="N76" s="1">
-        <v>3113</v>
-      </c>
-      <c r="O76" s="1">
-        <v>2211</v>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L120" s="1">
+        <v>8868</v>
+      </c>
+      <c r="M120" s="1">
+        <v>10154</v>
+      </c>
+      <c r="N120" s="1">
+        <v>4058</v>
+      </c>
+      <c r="P120" s="1">
+        <v>8871</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>3731</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L77" s="1">
-        <v>3045</v>
-      </c>
-      <c r="M77" s="1">
-        <v>3459</v>
-      </c>
-      <c r="N77" s="1">
-        <v>2622</v>
-      </c>
-      <c r="O77" s="1">
-        <v>2910</v>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L121" s="1">
+        <v>8377</v>
+      </c>
+      <c r="M121" s="1">
+        <v>10689</v>
+      </c>
+      <c r="N121" s="1">
+        <v>3728</v>
+      </c>
+      <c r="P121" s="1">
+        <v>11934</v>
+      </c>
+      <c r="Q121" s="1">
+        <v>3159</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L78" s="1">
-        <v>2990</v>
-      </c>
-      <c r="M78" s="1">
-        <v>3159</v>
-      </c>
-      <c r="N78" s="1">
-        <v>2987</v>
-      </c>
-      <c r="O78" s="1">
-        <v>5401</v>
-      </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B90" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L92" s="1">
-        <v>3607</v>
-      </c>
-      <c r="M92" s="1">
-        <v>2780</v>
-      </c>
-      <c r="N92" s="1">
-        <v>1264</v>
-      </c>
-      <c r="O92" s="1">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L93" s="1">
-        <v>5474</v>
-      </c>
-      <c r="M93" s="1">
-        <v>4928</v>
-      </c>
-      <c r="N93" s="1">
-        <v>2385</v>
-      </c>
-      <c r="O93" s="1">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L94" s="1">
-        <v>6866</v>
-      </c>
-      <c r="M94" s="1">
-        <v>7621</v>
-      </c>
-      <c r="N94" s="1">
-        <v>3216</v>
-      </c>
-      <c r="O94" s="1">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L95" s="1">
-        <v>7485</v>
-      </c>
-      <c r="M95" s="1">
-        <v>14469</v>
-      </c>
-      <c r="N95" s="1">
-        <v>3398</v>
-      </c>
-      <c r="O95" s="1">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L96" s="1">
-        <v>8167</v>
-      </c>
-      <c r="M96" s="1">
-        <v>8800</v>
-      </c>
-      <c r="N96" s="1">
-        <v>3422</v>
-      </c>
-      <c r="O96" s="1">
-        <v>6771</v>
-      </c>
-    </row>
-    <row r="97" spans="12:15" x14ac:dyDescent="0.15">
-      <c r="L97" s="1">
-        <v>7076</v>
-      </c>
-      <c r="M97" s="1">
-        <v>9090</v>
-      </c>
-      <c r="N97" s="1">
-        <v>3417</v>
-      </c>
-      <c r="O97" s="1">
-        <v>9653</v>
-      </c>
-    </row>
-    <row r="98" spans="12:15" x14ac:dyDescent="0.15">
-      <c r="L98" s="1">
-        <v>7649</v>
-      </c>
-      <c r="M98" s="1">
-        <v>9740</v>
-      </c>
-      <c r="N98" s="1">
-        <v>3479</v>
-      </c>
-      <c r="O98" s="1">
-        <v>12651</v>
-      </c>
-    </row>
-    <row r="99" spans="12:15" x14ac:dyDescent="0.15">
-      <c r="L99" s="1">
-        <v>8456</v>
-      </c>
-      <c r="M99" s="1">
-        <v>8664</v>
-      </c>
-      <c r="N99" s="1">
-        <v>3577</v>
-      </c>
-      <c r="O99" s="1">
-        <v>13029</v>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L122" s="1">
+        <v>8651</v>
+      </c>
+      <c r="M122" s="1">
+        <v>9672</v>
+      </c>
+      <c r="N122" s="1">
+        <v>3696</v>
+      </c>
+      <c r="P122" s="1">
+        <v>12411</v>
+      </c>
+      <c r="Q122" s="1">
+        <v>3866</v>
       </c>
     </row>
   </sheetData>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\lock-free\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B69E35-A1FE-411B-94CB-8886AF74D7EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5513263-638F-4B19-A40B-11FE874354E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,17 +179,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,7 +470,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>996</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3700,28 +3697,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1195</c:v>
+                  <c:v>1148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1877</c:v>
+                  <c:v>2070</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2622</c:v>
+                  <c:v>2578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3267</c:v>
+                  <c:v>3044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4106</c:v>
+                  <c:v>3613</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3731</c:v>
+                  <c:v>3454</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3159</c:v>
+                  <c:v>3663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3866</c:v>
+                  <c:v>3753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7821,9 +7818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="P129" sqref="P129"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7836,67 +7831,49 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
@@ -7945,7 +7922,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L16" s="1">
-        <v>996</v>
+        <v>896</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>19</v>
@@ -8370,7 +8347,7 @@
         <v>652</v>
       </c>
       <c r="Q115" s="1">
-        <v>1195</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.15">
@@ -8387,7 +8364,7 @@
         <v>1493</v>
       </c>
       <c r="Q116" s="1">
-        <v>1877</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.15">
@@ -8404,7 +8381,7 @@
         <v>1958</v>
       </c>
       <c r="Q117" s="1">
-        <v>2622</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.15">
@@ -8421,7 +8398,7 @@
         <v>2883</v>
       </c>
       <c r="Q118" s="1">
-        <v>3267</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.15">
@@ -8438,7 +8415,7 @@
         <v>6144</v>
       </c>
       <c r="Q119" s="1">
-        <v>4106</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.15">
@@ -8455,7 +8432,7 @@
         <v>8871</v>
       </c>
       <c r="Q120" s="1">
-        <v>3731</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.15">
@@ -8472,7 +8449,7 @@
         <v>11934</v>
       </c>
       <c r="Q121" s="1">
-        <v>3159</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.15">
@@ -8489,7 +8466,7 @@
         <v>12411</v>
       </c>
       <c r="Q122" s="1">
-        <v>3866</v>
+        <v>3753</v>
       </c>
     </row>
   </sheetData>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\lock-free\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5513263-638F-4B19-A40B-11FE874354E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5C5960-F727-4961-BAA7-2B6FFC461023}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,7 +258,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3557</c:v>
+                  <c:v>3955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -300,7 +300,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1929</c:v>
+                  <c:v>2761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -342,7 +342,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1074</c:v>
+                  <c:v>1515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,7 +384,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1059</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,7 +428,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>545</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -470,7 +470,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>896</c:v>
+                  <c:v>702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,7 +980,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1059</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,28 +1093,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1354</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2109</c:v>
+                  <c:v>1540</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3191</c:v>
+                  <c:v>2236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3717</c:v>
+                  <c:v>2741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3803</c:v>
+                  <c:v>3315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4398</c:v>
+                  <c:v>3597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4563</c:v>
+                  <c:v>4115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5049</c:v>
+                  <c:v>4120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,7 +1171,7 @@
                   <c:v>1783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2520</c:v>
+                  <c:v>2056</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2306</c:v>
@@ -1631,7 +1631,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1059</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1744,28 +1744,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1354</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2109</c:v>
+                  <c:v>1540</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3191</c:v>
+                  <c:v>2236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3717</c:v>
+                  <c:v>2741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3803</c:v>
+                  <c:v>3315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4398</c:v>
+                  <c:v>3597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4563</c:v>
+                  <c:v>4115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5049</c:v>
+                  <c:v>4120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,7 +1822,7 @@
                   <c:v>1783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2520</c:v>
+                  <c:v>2056</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2306</c:v>
@@ -2261,7 +2261,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1059</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2374,28 +2374,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1354</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2109</c:v>
+                  <c:v>1540</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3191</c:v>
+                  <c:v>2236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3717</c:v>
+                  <c:v>2741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3803</c:v>
+                  <c:v>3315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4398</c:v>
+                  <c:v>3597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4563</c:v>
+                  <c:v>4115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5049</c:v>
+                  <c:v>4120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2452,7 +2452,7 @@
                   <c:v>1783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2520</c:v>
+                  <c:v>2056</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2306</c:v>
@@ -2933,7 +2933,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1059</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2980,28 +2980,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>590</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>975</c:v>
+                  <c:v>1203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1269</c:v>
+                  <c:v>1225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1512</c:v>
+                  <c:v>1363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1751</c:v>
+                  <c:v>1538</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2112</c:v>
+                  <c:v>1735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2873</c:v>
+                  <c:v>2184</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4431</c:v>
+                  <c:v>3322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3046,28 +3046,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1170</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>993</c:v>
+                  <c:v>1477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1409</c:v>
+                  <c:v>1678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1694</c:v>
+                  <c:v>1880</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2110</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2440</c:v>
+                  <c:v>2258</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2806</c:v>
+                  <c:v>2466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2791</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3584,7 +3584,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1059</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3697,28 +3697,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1148</c:v>
+                  <c:v>779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2070</c:v>
+                  <c:v>2162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2578</c:v>
+                  <c:v>2488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3044</c:v>
+                  <c:v>2902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3613</c:v>
+                  <c:v>3099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3454</c:v>
+                  <c:v>3204</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3663</c:v>
+                  <c:v>3588</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3753</c:v>
+                  <c:v>3825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7818,7 +7818,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="S100" sqref="S100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7882,7 +7884,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L11" s="1">
-        <v>3557</v>
+        <v>3955</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>14</v>
@@ -7890,7 +7892,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L12" s="1">
-        <v>1929</v>
+        <v>2761</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>15</v>
@@ -7898,7 +7900,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L13" s="1">
-        <v>1074</v>
+        <v>1515</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>13</v>
@@ -7906,7 +7908,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L14" s="1">
-        <v>1059</v>
+        <v>1173</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>17</v>
@@ -7914,7 +7916,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L15" s="1">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>23</v>
@@ -7922,7 +7924,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L16" s="1">
-        <v>896</v>
+        <v>702</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>19</v>
@@ -7989,7 +7991,7 @@
         <v>541</v>
       </c>
       <c r="Q33" s="1">
-        <v>1354</v>
+        <v>820</v>
       </c>
       <c r="R33" s="1">
         <v>377</v>
@@ -8009,7 +8011,7 @@
         <v>1101</v>
       </c>
       <c r="Q34" s="1">
-        <v>2109</v>
+        <v>1540</v>
       </c>
       <c r="R34" s="1">
         <v>775</v>
@@ -8029,7 +8031,7 @@
         <v>1664</v>
       </c>
       <c r="Q35" s="1">
-        <v>3191</v>
+        <v>2236</v>
       </c>
       <c r="R35" s="1">
         <v>1418</v>
@@ -8049,7 +8051,7 @@
         <v>2206</v>
       </c>
       <c r="Q36" s="1">
-        <v>3717</v>
+        <v>2741</v>
       </c>
       <c r="R36" s="1">
         <v>1783</v>
@@ -8069,10 +8071,10 @@
         <v>2510</v>
       </c>
       <c r="Q37" s="1">
-        <v>3803</v>
+        <v>3315</v>
       </c>
       <c r="R37" s="1">
-        <v>2520</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="38" spans="12:18" x14ac:dyDescent="0.15">
@@ -8089,7 +8091,7 @@
         <v>2676</v>
       </c>
       <c r="Q38" s="1">
-        <v>4398</v>
+        <v>3597</v>
       </c>
       <c r="R38" s="1">
         <v>2306</v>
@@ -8109,7 +8111,7 @@
         <v>3019</v>
       </c>
       <c r="Q39" s="1">
-        <v>4563</v>
+        <v>4115</v>
       </c>
       <c r="R39" s="1">
         <v>2441</v>
@@ -8129,7 +8131,7 @@
         <v>3039</v>
       </c>
       <c r="Q40" s="1">
-        <v>5049</v>
+        <v>4120</v>
       </c>
       <c r="R40" s="1">
         <v>2747</v>
@@ -8177,10 +8179,10 @@
         <v>1393</v>
       </c>
       <c r="P93" s="1">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q93" s="1">
-        <v>1170</v>
+        <v>720</v>
       </c>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.15">
@@ -8194,10 +8196,10 @@
         <v>1976</v>
       </c>
       <c r="P94" s="1">
-        <v>975</v>
+        <v>1203</v>
       </c>
       <c r="Q94" s="1">
-        <v>993</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.15">
@@ -8211,10 +8213,10 @@
         <v>2767</v>
       </c>
       <c r="P95" s="1">
-        <v>1269</v>
+        <v>1225</v>
       </c>
       <c r="Q95" s="1">
-        <v>1409</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.15">
@@ -8228,10 +8230,10 @@
         <v>3246</v>
       </c>
       <c r="P96" s="1">
-        <v>1512</v>
+        <v>1363</v>
       </c>
       <c r="Q96" s="1">
-        <v>1694</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="97" spans="12:17" x14ac:dyDescent="0.15">
@@ -8245,10 +8247,10 @@
         <v>3470</v>
       </c>
       <c r="P97" s="1">
-        <v>1751</v>
+        <v>1538</v>
       </c>
       <c r="Q97" s="1">
-        <v>2110</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="98" spans="12:17" x14ac:dyDescent="0.15">
@@ -8262,10 +8264,10 @@
         <v>3579</v>
       </c>
       <c r="P98" s="1">
-        <v>2112</v>
+        <v>1735</v>
       </c>
       <c r="Q98" s="1">
-        <v>2440</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="99" spans="12:17" x14ac:dyDescent="0.15">
@@ -8279,10 +8281,10 @@
         <v>3610</v>
       </c>
       <c r="P99" s="1">
-        <v>2873</v>
+        <v>2184</v>
       </c>
       <c r="Q99" s="1">
-        <v>2806</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="100" spans="12:17" x14ac:dyDescent="0.15">
@@ -8296,10 +8298,10 @@
         <v>3583</v>
       </c>
       <c r="P100" s="1">
-        <v>4431</v>
+        <v>3322</v>
       </c>
       <c r="Q100" s="1">
-        <v>2791</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.15">
@@ -8347,7 +8349,7 @@
         <v>652</v>
       </c>
       <c r="Q115" s="1">
-        <v>1148</v>
+        <v>779</v>
       </c>
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.15">
@@ -8364,7 +8366,7 @@
         <v>1493</v>
       </c>
       <c r="Q116" s="1">
-        <v>2070</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.15">
@@ -8381,7 +8383,7 @@
         <v>1958</v>
       </c>
       <c r="Q117" s="1">
-        <v>2578</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.15">
@@ -8398,7 +8400,7 @@
         <v>2883</v>
       </c>
       <c r="Q118" s="1">
-        <v>3044</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.15">
@@ -8415,7 +8417,7 @@
         <v>6144</v>
       </c>
       <c r="Q119" s="1">
-        <v>3613</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.15">
@@ -8432,7 +8434,7 @@
         <v>8871</v>
       </c>
       <c r="Q120" s="1">
-        <v>3454</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.15">
@@ -8449,7 +8451,7 @@
         <v>11934</v>
       </c>
       <c r="Q121" s="1">
-        <v>3663</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.15">
@@ -8466,7 +8468,7 @@
         <v>12411</v>
       </c>
       <c r="Q122" s="1">
-        <v>3753</v>
+        <v>3825</v>
       </c>
     </row>
   </sheetData>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\lock-free\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\MyFiles\lock-free\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5C5960-F727-4961-BAA7-2B6FFC461023}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +206,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -263,7 +262,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -305,7 +304,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -347,7 +346,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -389,7 +388,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -433,7 +432,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-214C-4DD6-8BC2-DABD4B364B1D}"/>
             </c:ext>
@@ -475,7 +474,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -517,7 +516,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -561,7 +560,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -576,11 +575,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="77988336"/>
-        <c:axId val="77988896"/>
+        <c:axId val="72096944"/>
+        <c:axId val="108977984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77988336"/>
+        <c:axId val="72096944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +589,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77988896"/>
+        <c:crossAx val="108977984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -598,7 +597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77988896"/>
+        <c:axId val="108977984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +648,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77988336"/>
+        <c:crossAx val="72096944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -663,6 +662,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -730,7 +730,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -809,7 +809,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -875,7 +875,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -941,7 +941,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -986,7 +986,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -1054,7 +1054,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -1120,7 +1120,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -1186,7 +1186,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -1233,7 +1233,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -1248,11 +1248,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="77988336"/>
-        <c:axId val="77988896"/>
+        <c:axId val="108984704"/>
+        <c:axId val="108985264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77988336"/>
+        <c:axId val="108984704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1262,7 +1262,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77988896"/>
+        <c:crossAx val="108985264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1270,7 +1270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77988896"/>
+        <c:axId val="108985264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1321,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77988336"/>
+        <c:crossAx val="108984704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1335,6 +1335,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1402,7 +1403,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1481,7 +1482,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
@@ -1526,7 +1527,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
@@ -1592,7 +1593,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
@@ -1637,7 +1638,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
@@ -1705,7 +1706,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
@@ -1771,7 +1772,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
@@ -1837,7 +1838,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
@@ -1884,7 +1885,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-5314-4EB8-8265-4579B85B9CC6}"/>
             </c:ext>
@@ -1899,11 +1900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="77988336"/>
-        <c:axId val="77988896"/>
+        <c:axId val="224003952"/>
+        <c:axId val="224004512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77988336"/>
+        <c:axId val="224003952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1914,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77988896"/>
+        <c:crossAx val="224004512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1921,7 +1922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77988896"/>
+        <c:axId val="224004512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1972,7 +1973,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77988336"/>
+        <c:crossAx val="224003952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1986,6 +1987,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2053,7 +2055,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2111,7 +2113,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
@@ -2156,7 +2158,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
@@ -2222,7 +2224,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
@@ -2267,7 +2269,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
@@ -2335,7 +2337,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
@@ -2401,7 +2403,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
@@ -2467,7 +2469,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
@@ -2514,7 +2516,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-C863-4B56-828B-DD76911E345C}"/>
             </c:ext>
@@ -2529,11 +2531,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="77988336"/>
-        <c:axId val="77988896"/>
+        <c:axId val="224130944"/>
+        <c:axId val="224131504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77988336"/>
+        <c:axId val="224130944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,7 +2545,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77988896"/>
+        <c:crossAx val="224131504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2551,7 +2553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77988896"/>
+        <c:axId val="224131504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +2604,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77988336"/>
+        <c:crossAx val="224130944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2616,6 +2618,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2683,7 +2686,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2762,7 +2765,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -2828,7 +2831,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -2894,7 +2897,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -2939,7 +2942,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -2980,34 +2983,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>589</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1203</c:v>
+                  <c:v>975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1225</c:v>
+                  <c:v>1269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1363</c:v>
+                  <c:v>1512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1538</c:v>
+                  <c:v>1751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1735</c:v>
+                  <c:v>2112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2184</c:v>
+                  <c:v>2873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3322</c:v>
+                  <c:v>4431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -3073,7 +3076,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -3118,7 +3121,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -3165,7 +3168,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -3180,11 +3183,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="77988336"/>
-        <c:axId val="77988896"/>
+        <c:axId val="223769808"/>
+        <c:axId val="223770368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77988336"/>
+        <c:axId val="223769808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3194,7 +3197,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77988896"/>
+        <c:crossAx val="223770368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3202,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77988896"/>
+        <c:axId val="223770368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3253,7 +3256,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77988336"/>
+        <c:crossAx val="223769808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3267,6 +3270,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3334,7 +3338,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3413,7 +3417,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -3479,7 +3483,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -3545,7 +3549,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -3590,7 +3594,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -3658,7 +3662,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -3724,7 +3728,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -3769,7 +3773,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -3816,7 +3820,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -3831,11 +3835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="77988336"/>
-        <c:axId val="77988896"/>
+        <c:axId val="223899296"/>
+        <c:axId val="223899856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77988336"/>
+        <c:axId val="223899296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,7 +3849,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77988896"/>
+        <c:crossAx val="223899856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3853,7 +3857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77988896"/>
+        <c:axId val="223899856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3904,7 +3908,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77988336"/>
+        <c:crossAx val="223899296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3918,6 +3922,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7340,7 +7345,7 @@
         <xdr:cNvPr id="10" name="图表 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFE82F1-776E-4C94-ACEB-3112B8C6064B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BFE82F1-776E-4C94-ACEB-3112B8C6064B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7378,7 +7383,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA2D681-B13C-47B7-81B9-3EC74AFF1E5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BA2D681-B13C-47B7-81B9-3EC74AFF1E5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7416,7 +7421,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4629D66D-2767-48C8-8067-508E8F862518}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4629D66D-2767-48C8-8067-508E8F862518}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7454,7 +7459,7 @@
         <xdr:cNvPr id="9" name="图表 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B3C7E3-9B65-4885-94DE-344D69C6DE74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4B3C7E3-9B65-4885-94DE-344D69C6DE74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7492,7 +7497,7 @@
         <xdr:cNvPr id="14" name="图表 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86B23CA-CBE2-4C73-B355-F148212AFE59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A86B23CA-CBE2-4C73-B355-F148212AFE59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7530,7 +7535,7 @@
         <xdr:cNvPr id="15" name="图表 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCCEB28-EA7A-4B07-B99E-AC7BC7C67E99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CCCEB28-EA7A-4B07-B99E-AC7BC7C67E99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7815,12 +7820,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="S100" sqref="S100"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8179,7 +8182,7 @@
         <v>1393</v>
       </c>
       <c r="P93" s="1">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q93" s="1">
         <v>720</v>
@@ -8196,7 +8199,7 @@
         <v>1976</v>
       </c>
       <c r="P94" s="1">
-        <v>1203</v>
+        <v>975</v>
       </c>
       <c r="Q94" s="1">
         <v>1477</v>
@@ -8213,7 +8216,7 @@
         <v>2767</v>
       </c>
       <c r="P95" s="1">
-        <v>1225</v>
+        <v>1269</v>
       </c>
       <c r="Q95" s="1">
         <v>1678</v>
@@ -8230,7 +8233,7 @@
         <v>3246</v>
       </c>
       <c r="P96" s="1">
-        <v>1363</v>
+        <v>1512</v>
       </c>
       <c r="Q96" s="1">
         <v>1880</v>
@@ -8247,7 +8250,7 @@
         <v>3470</v>
       </c>
       <c r="P97" s="1">
-        <v>1538</v>
+        <v>1751</v>
       </c>
       <c r="Q97" s="1">
         <v>2041</v>
@@ -8264,7 +8267,7 @@
         <v>3579</v>
       </c>
       <c r="P98" s="1">
-        <v>1735</v>
+        <v>2112</v>
       </c>
       <c r="Q98" s="1">
         <v>2258</v>
@@ -8281,7 +8284,7 @@
         <v>3610</v>
       </c>
       <c r="P99" s="1">
-        <v>2184</v>
+        <v>2873</v>
       </c>
       <c r="Q99" s="1">
         <v>2466</v>
@@ -8298,7 +8301,7 @@
         <v>3583</v>
       </c>
       <c r="P100" s="1">
-        <v>3322</v>
+        <v>4431</v>
       </c>
       <c r="Q100" s="1">
         <v>2590</v>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\lock-free\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\MyFiles\lock-free\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E445C698-FB8B-4D0E-A2AF-485F76A661EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +213,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -270,7 +269,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -312,7 +311,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -354,7 +353,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -396,7 +395,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -440,7 +439,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-214C-4DD6-8BC2-DABD4B364B1D}"/>
             </c:ext>
@@ -482,7 +481,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -524,7 +523,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -568,7 +567,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-2536-479F-A2EA-F4C45FC42A34}"/>
             </c:ext>
@@ -612,7 +611,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8D14-40C8-A5C2-C1448ECB4DE7}"/>
             </c:ext>
@@ -627,11 +626,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="72096944"/>
-        <c:axId val="108977984"/>
+        <c:axId val="108362048"/>
+        <c:axId val="108362608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72096944"/>
+        <c:axId val="108362048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +640,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108977984"/>
+        <c:crossAx val="108362608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -649,7 +648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108977984"/>
+        <c:axId val="108362608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +699,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72096944"/>
+        <c:crossAx val="108362048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -714,6 +713,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -860,7 +860,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -926,7 +926,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -992,7 +992,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -1037,7 +1037,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -1105,7 +1105,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -1144,34 +1144,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>820</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1540</c:v>
+                  <c:v>1419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2236</c:v>
+                  <c:v>1905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2741</c:v>
+                  <c:v>2225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3315</c:v>
+                  <c:v>2568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3597</c:v>
+                  <c:v>2445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4115</c:v>
+                  <c:v>2533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4120</c:v>
+                  <c:v>2935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -1237,7 +1237,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -1284,7 +1284,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A792-4122-949A-B4098821ADA9}"/>
             </c:ext>
@@ -1352,7 +1352,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A0A5-446A-A0D2-97F0772CA354}"/>
             </c:ext>
@@ -1367,11 +1367,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108984704"/>
-        <c:axId val="108985264"/>
+        <c:axId val="108845104"/>
+        <c:axId val="108845664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108984704"/>
+        <c:axId val="108845104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1381,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108985264"/>
+        <c:crossAx val="108845664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1389,7 +1389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108985264"/>
+        <c:axId val="108845664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1440,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108984704"/>
+        <c:crossAx val="108845104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1454,6 +1454,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1521,7 +1522,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1600,7 +1601,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -1666,7 +1667,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -1732,7 +1733,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -1777,7 +1778,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -1845,7 +1846,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -1884,34 +1885,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>720</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1477</c:v>
+                  <c:v>1075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1678</c:v>
+                  <c:v>1148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1880</c:v>
+                  <c:v>1429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2041</c:v>
+                  <c:v>1740</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2258</c:v>
+                  <c:v>1898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2466</c:v>
+                  <c:v>1981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2590</c:v>
+                  <c:v>2152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -1956,7 +1957,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -2003,7 +2004,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-2069-42C1-98D5-CF752AEE248E}"/>
             </c:ext>
@@ -2071,7 +2072,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-719F-4259-A954-1416A07418F3}"/>
             </c:ext>
@@ -2086,11 +2087,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="223769808"/>
-        <c:axId val="223770368"/>
+        <c:axId val="109286480"/>
+        <c:axId val="109287040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223769808"/>
+        <c:axId val="109286480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2101,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223770368"/>
+        <c:crossAx val="109287040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2108,7 +2109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223770368"/>
+        <c:axId val="109287040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,7 +2160,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223769808"/>
+        <c:crossAx val="109286480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2173,6 +2174,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2240,7 +2242,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2319,7 +2321,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -2385,7 +2387,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -2451,7 +2453,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -2496,7 +2498,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -2564,7 +2566,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -2603,34 +2605,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>779</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2162</c:v>
+                  <c:v>1815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2488</c:v>
+                  <c:v>2384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2902</c:v>
+                  <c:v>2843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3099</c:v>
+                  <c:v>3492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3204</c:v>
+                  <c:v>2452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3588</c:v>
+                  <c:v>2281</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3825</c:v>
+                  <c:v>2061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -2675,7 +2677,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -2722,7 +2724,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-BCE9-461F-A4AE-D6E9AEFEFF6A}"/>
             </c:ext>
@@ -2790,7 +2792,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AEA4-42A9-871C-6EB3D1327411}"/>
             </c:ext>
@@ -2805,11 +2807,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="223899296"/>
-        <c:axId val="223899856"/>
+        <c:axId val="109481424"/>
+        <c:axId val="109481984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223899296"/>
+        <c:axId val="109481424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,7 +2821,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223899856"/>
+        <c:crossAx val="109481984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2827,7 +2829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223899856"/>
+        <c:axId val="109481984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +2880,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223899296"/>
+        <c:crossAx val="109481424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2892,6 +2894,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2959,7 +2962,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3633,7 +3636,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AC38-4389-9094-C2D5E54CD7FB}"/>
             </c:ext>
@@ -4294,7 +4297,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-AC38-4389-9094-C2D5E54CD7FB}"/>
             </c:ext>
@@ -4955,7 +4958,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-AC38-4389-9094-C2D5E54CD7FB}"/>
             </c:ext>
@@ -5616,7 +5619,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-AC38-4389-9094-C2D5E54CD7FB}"/>
             </c:ext>
@@ -6277,7 +6280,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-AC38-4389-9094-C2D5E54CD7FB}"/>
             </c:ext>
@@ -6938,7 +6941,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-AC38-4389-9094-C2D5E54CD7FB}"/>
             </c:ext>
@@ -7603,7 +7606,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-AC38-4389-9094-C2D5E54CD7FB}"/>
             </c:ext>
@@ -8268,7 +8271,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-AC38-4389-9094-C2D5E54CD7FB}"/>
             </c:ext>
@@ -8933,7 +8936,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-AC38-4389-9094-C2D5E54CD7FB}"/>
             </c:ext>
@@ -8947,11 +8950,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="72096944"/>
-        <c:axId val="108977984"/>
+        <c:axId val="214232848"/>
+        <c:axId val="214233408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72096944"/>
+        <c:axId val="214232848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8961,12 +8964,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108977984"/>
+        <c:crossAx val="214233408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108977984"/>
+        <c:axId val="214233408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9017,7 +9020,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72096944"/>
+        <c:crossAx val="214232848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9031,6 +9034,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11897,7 +11901,7 @@
         <xdr:cNvPr id="10" name="图表 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFE82F1-776E-4C94-ACEB-3112B8C6064B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BFE82F1-776E-4C94-ACEB-3112B8C6064B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11935,7 +11939,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA2D681-B13C-47B7-81B9-3EC74AFF1E5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BA2D681-B13C-47B7-81B9-3EC74AFF1E5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11973,7 +11977,7 @@
         <xdr:cNvPr id="14" name="图表 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86B23CA-CBE2-4C73-B355-F148212AFE59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A86B23CA-CBE2-4C73-B355-F148212AFE59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12011,7 +12015,7 @@
         <xdr:cNvPr id="15" name="图表 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCCEB28-EA7A-4B07-B99E-AC7BC7C67E99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CCCEB28-EA7A-4B07-B99E-AC7BC7C67E99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12049,7 +12053,7 @@
         <xdr:cNvPr id="11" name="图表 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434F30CF-843F-48E8-9C25-084901FD6ED1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{434F30CF-843F-48E8-9C25-084901FD6ED1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12334,7 +12338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12528,7 +12532,7 @@
         <v>541</v>
       </c>
       <c r="Q53" s="1">
-        <v>820</v>
+        <v>451</v>
       </c>
       <c r="R53" s="1">
         <v>377</v>
@@ -12551,7 +12555,7 @@
         <v>1101</v>
       </c>
       <c r="Q54" s="1">
-        <v>1540</v>
+        <v>1419</v>
       </c>
       <c r="R54" s="1">
         <v>775</v>
@@ -12574,7 +12578,7 @@
         <v>1664</v>
       </c>
       <c r="Q55" s="1">
-        <v>2236</v>
+        <v>1905</v>
       </c>
       <c r="R55" s="1">
         <v>1418</v>
@@ -12597,7 +12601,7 @@
         <v>2206</v>
       </c>
       <c r="Q56" s="1">
-        <v>2741</v>
+        <v>2225</v>
       </c>
       <c r="R56" s="1">
         <v>1783</v>
@@ -12620,7 +12624,7 @@
         <v>2510</v>
       </c>
       <c r="Q57" s="1">
-        <v>3315</v>
+        <v>2568</v>
       </c>
       <c r="R57" s="1">
         <v>2056</v>
@@ -12643,7 +12647,7 @@
         <v>2676</v>
       </c>
       <c r="Q58" s="1">
-        <v>3597</v>
+        <v>2445</v>
       </c>
       <c r="R58" s="1">
         <v>2306</v>
@@ -12666,7 +12670,7 @@
         <v>3019</v>
       </c>
       <c r="Q59" s="1">
-        <v>4115</v>
+        <v>2533</v>
       </c>
       <c r="R59" s="1">
         <v>2441</v>
@@ -12689,7 +12693,7 @@
         <v>3039</v>
       </c>
       <c r="Q60" s="1">
-        <v>4120</v>
+        <v>2935</v>
       </c>
       <c r="R60" s="1">
         <v>2747</v>
@@ -12746,7 +12750,7 @@
         <v>590</v>
       </c>
       <c r="Q75" s="1">
-        <v>720</v>
+        <v>438</v>
       </c>
       <c r="T75" s="1">
         <v>363</v>
@@ -12766,7 +12770,7 @@
         <v>975</v>
       </c>
       <c r="Q76" s="1">
-        <v>1477</v>
+        <v>1075</v>
       </c>
       <c r="T76" s="1">
         <v>677</v>
@@ -12786,7 +12790,7 @@
         <v>1269</v>
       </c>
       <c r="Q77" s="1">
-        <v>1678</v>
+        <v>1148</v>
       </c>
       <c r="T77" s="1">
         <v>922</v>
@@ -12806,7 +12810,7 @@
         <v>1512</v>
       </c>
       <c r="Q78" s="1">
-        <v>1880</v>
+        <v>1429</v>
       </c>
       <c r="T78" s="1">
         <v>1258</v>
@@ -12826,7 +12830,7 @@
         <v>1751</v>
       </c>
       <c r="Q79" s="1">
-        <v>2041</v>
+        <v>1740</v>
       </c>
       <c r="T79" s="1">
         <v>1292</v>
@@ -12846,7 +12850,7 @@
         <v>2112</v>
       </c>
       <c r="Q80" s="1">
-        <v>2258</v>
+        <v>1898</v>
       </c>
       <c r="T80" s="1">
         <v>1373</v>
@@ -12866,7 +12870,7 @@
         <v>2873</v>
       </c>
       <c r="Q81" s="1">
-        <v>2466</v>
+        <v>1981</v>
       </c>
       <c r="T81" s="1">
         <v>1495</v>
@@ -12886,7 +12890,7 @@
         <v>4431</v>
       </c>
       <c r="Q82" s="1">
-        <v>2590</v>
+        <v>2152</v>
       </c>
       <c r="T82" s="1">
         <v>1808</v>
@@ -12940,7 +12944,7 @@
         <v>652</v>
       </c>
       <c r="Q97" s="1">
-        <v>779</v>
+        <v>452</v>
       </c>
       <c r="T97" s="1">
         <v>547</v>
@@ -12960,7 +12964,7 @@
         <v>1493</v>
       </c>
       <c r="Q98" s="1">
-        <v>2162</v>
+        <v>1815</v>
       </c>
       <c r="T98" s="1">
         <v>988</v>
@@ -12980,7 +12984,7 @@
         <v>1958</v>
       </c>
       <c r="Q99" s="1">
-        <v>2488</v>
+        <v>2384</v>
       </c>
       <c r="T99" s="1">
         <v>862</v>
@@ -13000,7 +13004,7 @@
         <v>2883</v>
       </c>
       <c r="Q100" s="1">
-        <v>2902</v>
+        <v>2843</v>
       </c>
       <c r="T100" s="1">
         <v>796</v>
@@ -13020,7 +13024,7 @@
         <v>6144</v>
       </c>
       <c r="Q101" s="1">
-        <v>3099</v>
+        <v>3492</v>
       </c>
       <c r="T101" s="1">
         <v>988</v>
@@ -13040,7 +13044,7 @@
         <v>8871</v>
       </c>
       <c r="Q102" s="1">
-        <v>3204</v>
+        <v>2452</v>
       </c>
       <c r="T102" s="1">
         <v>1009</v>
@@ -13060,7 +13064,7 @@
         <v>11934</v>
       </c>
       <c r="Q103" s="1">
-        <v>3588</v>
+        <v>2281</v>
       </c>
       <c r="T103" s="1">
         <v>1075</v>
@@ -13080,7 +13084,7 @@
         <v>12411</v>
       </c>
       <c r="Q104" s="1">
-        <v>3825</v>
+        <v>2061</v>
       </c>
       <c r="T104" s="1">
         <v>1002</v>
@@ -13095,10 +13099,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B392A0-5543-4382-AC0E-E3290B13D824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
